--- a/work/V1.3_需求(1月11号更新) .xlsx
+++ b/work/V1.3_需求(1月11号更新) .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF023352-86C8-49EE-9FF0-61ABE5D92CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9492AB6F-EE56-4F9F-A9A0-95FAFDE184A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="2070" windowWidth="12330" windowHeight="12990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.3新增字段" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>字段名</t>
   </si>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>bge_type_id,bge_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_type_id,function_type_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +424,106 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F5B3CB-DB3C-4EE6-AB6B-1D267C906198}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001180000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246493</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>27908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD078C3-D952-47EA-BD63-B9037865409B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="4105275"/>
+          <a:ext cx="9257143" cy="5333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>1066800</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2705100</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6146" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6146"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48E87C8-E188-468C-9551-1327431B459C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -809,7 +912,7 @@
   <dimension ref="A3:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -937,7 +1040,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -995,6 +1098,31 @@
         <oleObject progId="包装程序外壳对象" shapeId="6145" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="6146" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1066800</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>2705100</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="6146" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/work/V1.3_需求(1月11号更新) .xlsx
+++ b/work/V1.3_需求(1月11号更新) .xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9492AB6F-EE56-4F9F-A9A0-95FAFDE184A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA6C738-AE27-4C43-90A4-4A7D110BE535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.3新增字段" sheetId="1" r:id="rId1"/>
     <sheet name="桥梁列表" sheetId="15" r:id="rId2"/>
+    <sheet name="第三方单位用户CURD" sheetId="16" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>字段名</t>
   </si>
@@ -61,83 +62,96 @@
     <t>功能类型</t>
   </si>
   <si>
+    <t>结构类型</t>
+  </si>
+  <si>
+    <t>bge_type</t>
+  </si>
+  <si>
+    <t>cross_type</t>
+  </si>
+  <si>
+    <t>maintenance_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥梁列表增加字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设年代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养护等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥梁规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk_state(1危桥 2正常)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk_state(1危桥 2正常)(前端写死)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build_date_start,build_date_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_type_id,bge_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_type_id,function_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bs/api/bridgeService/BgeInfo/BeginfoSelectAsync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bs/api/bridgeService/BgeInfo/BegInfoDicAsync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>管辖类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>跨越类型</t>
-  </si>
-  <si>
-    <t>结构类型</t>
-  </si>
-  <si>
-    <t>bge_type</t>
-  </si>
-  <si>
-    <t>cross_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>struct_type</t>
-  </si>
-  <si>
-    <t>maintenance_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bs/api/bridgeService/BgeInfo/BegInfoDicAsync</t>
-  </si>
-  <si>
-    <t>接口地址：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥梁列表增加字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设年代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养护等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥梁规模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bs/api/bridgeService/BgeInfo/BeginfoSelectAsync</t>
-  </si>
-  <si>
-    <t>risk_state(1危桥 2正常)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>risk_state(1危桥 2正常)(前端写死)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>build_date_start,build_date_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bge_type_id,bge_type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function_type_id,function_type_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -314,6 +328,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,7 +490,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD078C3-D952-47EA-BD63-B9037865409B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -523,7 +539,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48E87C8-E188-468C-9551-1327431B459C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -544,23 +560,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -568,6 +571,99 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599380</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BF653C-B195-4D4E-AB6E-92721535BF03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="247650"/>
+          <a:ext cx="5561905" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>141486</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A78E162-6672-43D5-B3E3-7901E1AB8537}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="542925"/>
+          <a:ext cx="11114286" cy="5133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -911,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA0DF88-B67C-4FEF-8A30-7BD851537272}">
   <dimension ref="A3:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -933,8 +1029,8 @@
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -942,8 +1038,8 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -951,8 +1047,8 @@
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -960,108 +1056,112 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
+      <c r="C7" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="5"/>
@@ -1125,4 +1225,23 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA29B80-D291-44F6-9F52-6416771BFF9F}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/work/V1.3_需求(1月11号更新) .xlsx
+++ b/work/V1.3_需求(1月11号更新) .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA6C738-AE27-4C43-90A4-4A7D110BE535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49936D3D-91BD-409B-A0C1-2C2605B26899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BF653C-B195-4D4E-AB6E-92721535BF03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -638,7 +638,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A78E162-6672-43D5-B3E3-7901E1AB8537}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1235,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/work/V1.3_需求(1月11号更新) .xlsx
+++ b/work/V1.3_需求(1月11号更新) .xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49936D3D-91BD-409B-A0C1-2C2605B26899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03576B1-1939-4DBC-B1BD-86BEF64A2C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.3新增字段" sheetId="1" r:id="rId1"/>
     <sheet name="桥梁列表" sheetId="15" r:id="rId2"/>
     <sheet name="第三方单位用户CURD" sheetId="16" r:id="rId3"/>
+    <sheet name="市端_超管端对接" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -1234,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1244,4 +1245,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C679D3C1-3498-447D-A869-9D2B9074116B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/work/V1.3_需求(1月11号更新) .xlsx
+++ b/work/V1.3_需求(1月11号更新) .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03576B1-1939-4DBC-B1BD-86BEF64A2C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38E469-46EF-45B7-9F6C-D03C234F0C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="v1.3新增字段" sheetId="1" r:id="rId1"/>
     <sheet name="桥梁列表" sheetId="15" r:id="rId2"/>
     <sheet name="第三方单位用户CURD" sheetId="16" r:id="rId3"/>
-    <sheet name="市端_超管端对接" sheetId="17" r:id="rId4"/>
+    <sheet name="第三方新建用户" sheetId="18" r:id="rId4"/>
+    <sheet name="市端_超管端对接" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>字段名</t>
   </si>
@@ -153,6 +154,10 @@
   </si>
   <si>
     <t>struct_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议弄成一个接口公用，左边是第三方页面，右边是桥梁养护端页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,6 +673,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>217171</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>151682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16102182-2A6D-4A9D-9610-338D1F23A287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="19050"/>
+          <a:ext cx="15228571" cy="5742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1236,7 +1290,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1248,10 +1302,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904A8346-C967-47DA-A2A1-0062441C1E35}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C679D3C1-3498-447D-A869-9D2B9074116B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>

--- a/work/V1.3_需求(1月11号更新) .xlsx
+++ b/work/V1.3_需求(1月11号更新) .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38E469-46EF-45B7-9F6C-D03C234F0C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94A2656-46D4-4D32-8D5C-63065E49BE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.3新增字段" sheetId="1" r:id="rId1"/>
@@ -628,16 +628,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>141486</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>560586</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>66033</xdr:rowOff>
+      <xdr:rowOff>75558</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -660,7 +660,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="542925"/>
+          <a:off x="6591300" y="552450"/>
           <a:ext cx="11114286" cy="5133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -693,7 +693,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16102182-2A6D-4A9D-9610-338D1F23A287}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,8 +1289,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1308,8 +1308,8 @@
   </sheetPr>
   <dimension ref="G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
